--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1020.21453</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2851.11556</v>
-      </c>
-      <c r="D2" t="n">
-        <v>211.93713</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.76622</v>
-      </c>
-      <c r="F2" t="n">
-        <v>38.31054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4224.0263</v>
-      </c>
-      <c r="H2" t="n">
-        <v>955.50826</v>
-      </c>
-      <c r="I2" t="n">
-        <v>638.46606</v>
-      </c>
-      <c r="J2" t="n">
-        <v>332.16286</v>
-      </c>
-      <c r="K2" t="n">
-        <v>57294.95762</v>
-      </c>
-      <c r="L2" t="n">
-        <v>250.23678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.21132</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.00388</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1344.27424</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1394.56235</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>290.30266</v>
-      </c>
-      <c r="R2" t="n">
-        <v>91.2929</v>
-      </c>
-      <c r="S2" t="n">
-        <v>174.59671</v>
-      </c>
-      <c r="T2" t="n">
-        <v>249.21727</v>
-      </c>
-      <c r="U2" t="n">
-        <v>276.3825</v>
-      </c>
-      <c r="V2" t="n">
-        <v>887.29944</v>
-      </c>
-      <c r="W2" t="n">
-        <v>424.78063</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2821.89161</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13943.34682</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1191.11039</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>756.94794</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>54.40317</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3097.81355</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5182.77065</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1604.32036</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1173.82578</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>633.97465</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>295.1476</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1912.30413</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>357.43595</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>361.4552</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>913.66994</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>768.73414</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5952.87192</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>126.11748</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>970.15999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3062.71197</v>
-      </c>
-      <c r="D3" t="n">
-        <v>222.55592</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.43809</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35.93268</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4486.5549</v>
-      </c>
-      <c r="H3" t="n">
-        <v>732.63124</v>
-      </c>
-      <c r="I3" t="n">
-        <v>678.2301</v>
-      </c>
-      <c r="J3" t="n">
-        <v>349.80772</v>
-      </c>
-      <c r="K3" t="n">
-        <v>61782.44969</v>
-      </c>
-      <c r="L3" t="n">
-        <v>281.07029</v>
-      </c>
-      <c r="M3" t="n">
-        <v>23.59339</v>
-      </c>
-      <c r="N3" t="n">
-        <v>29.19168</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1330.97353</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1482.51577</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>297.14972</v>
-      </c>
-      <c r="R3" t="n">
-        <v>86.52240999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>188.81962</v>
-      </c>
-      <c r="T3" t="n">
-        <v>231.65151</v>
-      </c>
-      <c r="U3" t="n">
-        <v>286.66833</v>
-      </c>
-      <c r="V3" t="n">
-        <v>960.00998</v>
-      </c>
-      <c r="W3" t="n">
-        <v>426.77243</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3148.21361</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>16306.24619</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1255.38527</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>773.15077</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51.45239</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3389.28626</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5880.13362</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1503.91156</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1307.24662</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>660.54803</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>304.69922</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1781.5557</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>368.90448</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>344.09863</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>816.93402</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>796.8376500000001</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6390.45778</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>130.20546</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>945.09043</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3208.80384</v>
-      </c>
-      <c r="D4" t="n">
-        <v>213.79968</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5008</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29.5008</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4696.5427</v>
-      </c>
-      <c r="H4" t="n">
-        <v>709.88207</v>
-      </c>
-      <c r="I4" t="n">
-        <v>736.2111599999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>343.61579</v>
-      </c>
-      <c r="K4" t="n">
-        <v>64521.94746</v>
-      </c>
-      <c r="L4" t="n">
-        <v>255.54206</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21.16794</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30.34044</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1348.23309</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1562.00253</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>290.00806</v>
-      </c>
-      <c r="R4" t="n">
-        <v>76.54325</v>
-      </c>
-      <c r="S4" t="n">
-        <v>177.04541</v>
-      </c>
-      <c r="T4" t="n">
-        <v>233.02122</v>
-      </c>
-      <c r="U4" t="n">
-        <v>272.85311</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1004.55928</v>
-      </c>
-      <c r="W4" t="n">
-        <v>467.4301</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3547.65669</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17805.64519</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1300.12336</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>730.7970299999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>39.44691</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3414.51503</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6263.29926</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1379.2468</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1467.38129</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>682.28828</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>286.46315</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1770.67849</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>369.3137</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>368.20015</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>710.73447</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>806.89077</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6379.25813</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>150.52257</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
